--- a/Datos definitivos/Rampa_pos_1.xlsx
+++ b/Datos definitivos/Rampa_pos_1.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -717,616 +716,616 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="204"/>
                 <c:pt idx="0">
+                  <c:v>-255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-250.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-234.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-225.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-215</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-209.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-205</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-195</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-175</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-165</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-155</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-145</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-125.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-104.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-95</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-4.9019607843137258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.8039215686274508</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-4.7058823529411766</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-4.6078431372549016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.5098039215686274</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-4.4117647058823533</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-4.3137254901960782</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-4.215686274509804</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-4.117647058823529</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-4.0196078431372548</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-3.9215686274509802</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-3.8235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.7254901960784315</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.6274509803921569</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.5294117647058822</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-3.4313725490196076</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-3.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-3.2352941176470589</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-3.1372549019607843</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-3.0392156862745097</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-2.9411764705882351</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-2.8431372549019609</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-2.7450980392156863</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-2.6470588235294117</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-2.5490196078431371</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-2.4509803921568629</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-2.3529411764705883</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-2.2549019607843137</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-2.1568627450980391</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-2.0588235294117645</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-1.9607843137254901</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-1.8627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-1.7647058823529411</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-1.5686274509803921</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-1.4705882352941175</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-1.3725490196078431</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-1.2745098039215685</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-1.1764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-1.0784313725490196</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.98039215686274506</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.78431372549019607</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.68627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.58823529411764708</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.49019607843137253</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.39215686274509803</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.29411764705882354</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.19607843137254902</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-9.8039215686274508E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.8039215686274508E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.19607843137254902</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.39215686274509803</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.49019607843137253</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.68627450980392157</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.78431372549019607</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.0784313725490196</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.1764705882352942</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.2745098039215685</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3725490196078431</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.4705882352941175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.5686274509803921</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.8627450980392157</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9607843137254901</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.0588235294117645</c:v>
+                  <c:v>104.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.1568627450980391</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.2549019607843137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.3529411764705883</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.4509803921568629</c:v>
+                  <c:v>125.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.5490196078431371</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.6470588235294117</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.7450980392156863</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.8431372549019609</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.9411764705882351</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.0392156862745097</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.1372549019607843</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.2352941176470589</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.4313725490196076</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3.5294117647058822</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.6274509803921569</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3.7254901960784315</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3.8235294117647056</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.9215686274509802</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>4.0196078431372548</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.117647058823529</c:v>
+                  <c:v>209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.215686274509804</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.3137254901960782</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.4117647058823533</c:v>
+                  <c:v>225.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.5098039215686274</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6078431372549016</c:v>
+                  <c:v>234.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.7058823529411766</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.8039215686274508</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.9019607843137258</c:v>
+                  <c:v>250.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="102">
+                  <c:v>-255</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-250.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-245</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-234.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-225.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-215</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-209.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-205</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-195</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-185</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-175</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-170</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-165</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-155</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-145</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-140</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-125.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-120</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-104.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-95</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-90</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-85</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-45</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-40</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-4.9019607843137258</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-4.8039215686274508</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-4.7058823529411766</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-4.6078431372549016</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-4.5098039215686274</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-4.4117647058823533</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-4.3137254901960782</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-4.215686274509804</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-4.117647058823529</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-4.0196078431372548</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-3.9215686274509802</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-3.8235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-3.7254901960784315</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-3.6274509803921569</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-3.5294117647058822</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-3.4313725490196076</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-3.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-3.2352941176470589</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-3.1372549019607843</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-3.0392156862745097</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-2.9411764705882351</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-2.8431372549019609</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-2.7450980392156863</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-2.6470588235294117</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-2.5490196078431371</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-2.4509803921568629</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-2.3529411764705883</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-2.2549019607843137</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-2.1568627450980391</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-2.0588235294117645</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-1.9607843137254901</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-1.8627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-1.7647058823529411</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-1.6666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-1.5686274509803921</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-1.4705882352941175</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-1.3725490196078431</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-1.2745098039215685</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-1.1764705882352942</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-1.0784313725490196</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-0.98039215686274506</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-0.88235294117647056</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-0.78431372549019607</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-0.68627450980392157</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-0.58823529411764708</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-0.49019607843137253</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-0.39215686274509803</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-0.29411764705882354</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-0.19607843137254902</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-9.8039215686274508E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>9.8039215686274508E-2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.19607843137254902</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.39215686274509803</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.49019607843137253</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.58823529411764708</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.68627450980392157</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.78431372549019607</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.88235294117647056</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.98039215686274506</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.0784313725490196</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.1764705882352942</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.2745098039215685</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.3725490196078431</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.4705882352941175</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.5686274509803921</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.6666666666666667</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.7647058823529411</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.8627450980392157</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.9607843137254901</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.0588235294117645</c:v>
+                  <c:v>104.99999999999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.1568627450980391</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.2549019607843137</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.3529411764705883</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.4509803921568629</c:v>
+                  <c:v>125.00000000000001</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.5490196078431371</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.6470588235294117</c:v>
+                  <c:v>135</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.7450980392156863</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.8431372549019609</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.9411764705882351</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.0392156862745097</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>3.1372549019607843</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>3.2352941176470589</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>3.3333333333333335</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>3.4313725490196076</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>3.5294117647058822</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>3.6274509803921569</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>3.7254901960784315</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>3.8235294117647056</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>3.9215686274509802</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>4.0196078431372548</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>4.117647058823529</c:v>
+                  <c:v>209.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>4.215686274509804</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>4.3137254901960782</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>4.4117647058823533</c:v>
+                  <c:v>225.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>4.5098039215686274</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>4.6078431372549016</c:v>
+                  <c:v>234.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>4.7058823529411766</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>4.8039215686274508</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>4.9019607843137258</c:v>
+                  <c:v>250.00000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,11 +2590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259847296"/>
-        <c:axId val="259848832"/>
+        <c:axId val="396951936"/>
+        <c:axId val="396953472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259847296"/>
+        <c:axId val="396951936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12823"/>
@@ -2607,12 +2606,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259848832"/>
+        <c:crossAx val="396953472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259848832"/>
+        <c:axId val="396953472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,7 +2622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259847296"/>
+        <c:crossAx val="396951936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2650,15 +2649,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314324</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2970,14 +2969,14 @@
   <dimension ref="A1:Z204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B1">
         <v>17.89</v>
@@ -2992,7 +2991,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-4.9019607843137258</v>
+        <v>-250.00000000000003</v>
       </c>
       <c r="B2">
         <v>17.22</v>
@@ -3007,7 +3006,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-4.8039215686274508</v>
+        <v>-245</v>
       </c>
       <c r="B3">
         <v>15.72</v>
@@ -3030,7 +3029,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-4.7058823529411766</v>
+        <v>-240</v>
       </c>
       <c r="B4">
         <v>15.34</v>
@@ -3049,7 +3048,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-4.6078431372549016</v>
+        <v>-234.99999999999997</v>
       </c>
       <c r="B5">
         <v>14.42</v>
@@ -3072,7 +3071,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-4.5098039215686274</v>
+        <v>-230</v>
       </c>
       <c r="B6">
         <v>14.9</v>
@@ -3091,7 +3090,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-4.4117647058823533</v>
+        <v>-225.00000000000003</v>
       </c>
       <c r="B7">
         <v>14.48</v>
@@ -3106,7 +3105,7 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-4.3137254901960782</v>
+        <v>-220</v>
       </c>
       <c r="B8">
         <v>15.24</v>
@@ -3121,7 +3120,7 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-4.215686274509804</v>
+        <v>-215</v>
       </c>
       <c r="B9">
         <v>15.77</v>
@@ -3136,7 +3135,7 @@
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-4.117647058823529</v>
+        <v>-209.99999999999997</v>
       </c>
       <c r="B10">
         <v>15.77</v>
@@ -3151,7 +3150,7 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>-4.0196078431372548</v>
+        <v>-205</v>
       </c>
       <c r="B11">
         <v>16.8</v>
@@ -3166,7 +3165,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>-3.9215686274509802</v>
+        <v>-200</v>
       </c>
       <c r="B12">
         <v>17.11</v>
@@ -3181,7 +3180,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>-3.8235294117647056</v>
+        <v>-195</v>
       </c>
       <c r="B13">
         <v>17.89</v>
@@ -3196,7 +3195,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>-3.7254901960784315</v>
+        <v>-190</v>
       </c>
       <c r="B14">
         <v>18.78</v>
@@ -3211,7 +3210,7 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>-3.6274509803921569</v>
+        <v>-185</v>
       </c>
       <c r="B15">
         <v>19.3</v>
@@ -3226,7 +3225,7 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>-3.5294117647058822</v>
+        <v>-180</v>
       </c>
       <c r="B16">
         <v>20.74</v>
@@ -3241,7 +3240,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>-3.4313725490196076</v>
+        <v>-175</v>
       </c>
       <c r="B17">
         <v>21.41</v>
@@ -3256,7 +3255,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>-3.3333333333333335</v>
+        <v>-170</v>
       </c>
       <c r="B18">
         <v>22.85</v>
@@ -3271,7 +3270,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>-3.2352941176470589</v>
+        <v>-165</v>
       </c>
       <c r="B19">
         <v>23.68</v>
@@ -3286,7 +3285,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>-3.1372549019607843</v>
+        <v>-160</v>
       </c>
       <c r="B20">
         <v>25.34</v>
@@ -3301,7 +3300,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>-3.0392156862745097</v>
+        <v>-155</v>
       </c>
       <c r="B21">
         <v>26.05</v>
@@ -3316,7 +3315,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>-2.9411764705882351</v>
+        <v>-150</v>
       </c>
       <c r="B22">
         <v>27.37</v>
@@ -3331,7 +3330,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>-2.8431372549019609</v>
+        <v>-145</v>
       </c>
       <c r="B23">
         <v>28.57</v>
@@ -3346,7 +3345,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>-2.7450980392156863</v>
+        <v>-140</v>
       </c>
       <c r="B24">
         <v>29.91</v>
@@ -3361,7 +3360,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>-2.6470588235294117</v>
+        <v>-135</v>
       </c>
       <c r="B25">
         <v>31.46</v>
@@ -3376,7 +3375,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>-2.5490196078431371</v>
+        <v>-130</v>
       </c>
       <c r="B26">
         <v>32.770000000000003</v>
@@ -3391,7 +3390,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>-2.4509803921568629</v>
+        <v>-125.00000000000001</v>
       </c>
       <c r="B27">
         <v>34.21</v>
@@ -3406,7 +3405,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>-2.3529411764705883</v>
+        <v>-120</v>
       </c>
       <c r="B28">
         <v>35.6</v>
@@ -3421,7 +3420,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>-2.2549019607843137</v>
+        <v>-115</v>
       </c>
       <c r="B29">
         <v>37.159999999999997</v>
@@ -3436,7 +3435,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>-2.1568627450980391</v>
+        <v>-110</v>
       </c>
       <c r="B30">
         <v>38.659999999999997</v>
@@ -3451,7 +3450,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>-2.0588235294117645</v>
+        <v>-104.99999999999999</v>
       </c>
       <c r="B31">
         <v>39.950000000000003</v>
@@ -3466,7 +3465,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>-1.9607843137254901</v>
+        <v>-100</v>
       </c>
       <c r="B32">
         <v>41.34</v>
@@ -3481,7 +3480,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>-1.8627450980392157</v>
+        <v>-95</v>
       </c>
       <c r="B33">
         <v>42.54</v>
@@ -3496,7 +3495,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>-1.7647058823529411</v>
+        <v>-90</v>
       </c>
       <c r="B34">
         <v>43.42</v>
@@ -3511,7 +3510,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>-1.6666666666666667</v>
+        <v>-85</v>
       </c>
       <c r="B35">
         <v>43.99</v>
@@ -3526,7 +3525,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>-1.5686274509803921</v>
+        <v>-80</v>
       </c>
       <c r="B36">
         <v>44.81</v>
@@ -3541,7 +3540,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>-1.4705882352941175</v>
+        <v>-75</v>
       </c>
       <c r="B37">
         <v>45.36</v>
@@ -3556,7 +3555,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>-1.3725490196078431</v>
+        <v>-70</v>
       </c>
       <c r="B38">
         <v>46.12</v>
@@ -3571,7 +3570,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>-1.2745098039215685</v>
+        <v>-65</v>
       </c>
       <c r="B39">
         <v>47.06</v>
@@ -3586,7 +3585,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>-1.1764705882352942</v>
+        <v>-60</v>
       </c>
       <c r="B40">
         <v>47.63</v>
@@ -3601,7 +3600,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>-1.0784313725490196</v>
+        <v>-55</v>
       </c>
       <c r="B41">
         <v>48.06</v>
@@ -3616,7 +3615,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>-0.98039215686274506</v>
+        <v>-50</v>
       </c>
       <c r="B42">
         <v>48.52</v>
@@ -3631,7 +3630,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>-0.88235294117647056</v>
+        <v>-45</v>
       </c>
       <c r="B43">
         <v>48.3</v>
@@ -3646,7 +3645,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>-0.78431372549019607</v>
+        <v>-40</v>
       </c>
       <c r="B44">
         <v>48.93</v>
@@ -3661,7 +3660,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>-0.68627450980392157</v>
+        <v>-35</v>
       </c>
       <c r="B45">
         <v>48.81</v>
@@ -3676,7 +3675,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>-0.58823529411764708</v>
+        <v>-30</v>
       </c>
       <c r="B46">
         <v>48.83</v>
@@ -3691,7 +3690,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>-0.49019607843137253</v>
+        <v>-25</v>
       </c>
       <c r="B47">
         <v>48.83</v>
@@ -3706,7 +3705,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>-0.39215686274509803</v>
+        <v>-20</v>
       </c>
       <c r="B48">
         <v>49.24</v>
@@ -3721,7 +3720,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>-0.29411764705882354</v>
+        <v>-15</v>
       </c>
       <c r="B49">
         <v>48.73</v>
@@ -3736,7 +3735,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>-0.19607843137254902</v>
+        <v>-10</v>
       </c>
       <c r="B50">
         <v>48.61</v>
@@ -3751,7 +3750,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>-9.8039215686274508E-2</v>
+        <v>-5</v>
       </c>
       <c r="B51">
         <v>48.52</v>
@@ -3781,7 +3780,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>9.8039215686274508E-2</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>48.21</v>
@@ -3796,7 +3795,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.19607843137254902</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <v>48.45</v>
@@ -3811,7 +3810,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.29411764705882354</v>
+        <v>15</v>
       </c>
       <c r="B55">
         <v>47.82</v>
@@ -3826,7 +3825,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.39215686274509803</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>47.68</v>
@@ -3841,7 +3840,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.49019607843137253</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>47.73</v>
@@ -3856,7 +3855,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.58823529411764708</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>47.06</v>
@@ -3871,7 +3870,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.68627450980392157</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>46.86</v>
@@ -3886,7 +3885,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.78431372549019607</v>
+        <v>40</v>
       </c>
       <c r="B60">
         <v>46.44</v>
@@ -3901,7 +3900,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.88235294117647056</v>
+        <v>45</v>
       </c>
       <c r="B61">
         <v>46.13</v>
@@ -3916,7 +3915,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.98039215686274506</v>
+        <v>50</v>
       </c>
       <c r="B62">
         <v>45.77</v>
@@ -3931,7 +3930,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1.0784313725490196</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>45.93</v>
@@ -3946,7 +3945,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1.1764705882352942</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>45.05</v>
@@ -3961,7 +3960,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1.2745098039215685</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>44.78</v>
@@ -3976,7 +3975,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1.3725490196078431</v>
+        <v>70</v>
       </c>
       <c r="B66">
         <v>44.45</v>
@@ -3991,7 +3990,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1.4705882352941175</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>44.04</v>
@@ -4006,7 +4005,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1.5686274509803921</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>44.35</v>
@@ -4021,7 +4020,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1.6666666666666667</v>
+        <v>85</v>
       </c>
       <c r="B69">
         <v>43.42</v>
@@ -4036,7 +4035,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1.7647058823529411</v>
+        <v>90</v>
       </c>
       <c r="B70">
         <v>42.58</v>
@@ -4051,7 +4050,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1.8627450980392157</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>42.9</v>
@@ -4066,7 +4065,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1.9607843137254901</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>41.82</v>
@@ -4081,7 +4080,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2.0588235294117645</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="B73">
         <v>41.41</v>
@@ -4096,7 +4095,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2.1568627450980391</v>
+        <v>110</v>
       </c>
       <c r="B74">
         <v>40.880000000000003</v>
@@ -4111,7 +4110,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2.2549019607843137</v>
+        <v>115</v>
       </c>
       <c r="B75">
         <v>40.26</v>
@@ -4126,7 +4125,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2.3529411764705883</v>
+        <v>120</v>
       </c>
       <c r="B76">
         <v>39.9</v>
@@ -4141,7 +4140,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2.4509803921568629</v>
+        <v>125.00000000000001</v>
       </c>
       <c r="B77">
         <v>39.380000000000003</v>
@@ -4156,7 +4155,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2.5490196078431371</v>
+        <v>130</v>
       </c>
       <c r="B78">
         <v>39.33</v>
@@ -4171,7 +4170,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2.6470588235294117</v>
+        <v>135</v>
       </c>
       <c r="B79">
         <v>38.299999999999997</v>
@@ -4186,7 +4185,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>2.7450980392156863</v>
+        <v>140</v>
       </c>
       <c r="B80">
         <v>37.89</v>
@@ -4201,7 +4200,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2.8431372549019609</v>
+        <v>145</v>
       </c>
       <c r="B81">
         <v>37.369999999999997</v>
@@ -4216,7 +4215,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2.9411764705882351</v>
+        <v>150</v>
       </c>
       <c r="B82">
         <v>36.79</v>
@@ -4231,7 +4230,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>3.0392156862745097</v>
+        <v>155</v>
       </c>
       <c r="B83">
         <v>36.32</v>
@@ -4246,7 +4245,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3.1372549019607843</v>
+        <v>160</v>
       </c>
       <c r="B84">
         <v>35.700000000000003</v>
@@ -4261,7 +4260,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3.2352941176470589</v>
+        <v>165</v>
       </c>
       <c r="B85">
         <v>35.03</v>
@@ -4276,7 +4275,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3.3333333333333335</v>
+        <v>170</v>
       </c>
       <c r="B86">
         <v>34.31</v>
@@ -4291,7 +4290,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3.4313725490196076</v>
+        <v>175</v>
       </c>
       <c r="B87">
         <v>33.54</v>
@@ -4306,7 +4305,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3.5294117647058822</v>
+        <v>180</v>
       </c>
       <c r="B88">
         <v>32.71</v>
@@ -4321,7 +4320,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3.6274509803921569</v>
+        <v>185</v>
       </c>
       <c r="B89">
         <v>31.89</v>
@@ -4336,7 +4335,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3.7254901960784315</v>
+        <v>190</v>
       </c>
       <c r="B90">
         <v>30.79</v>
@@ -4351,7 +4350,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>3.8235294117647056</v>
+        <v>195</v>
       </c>
       <c r="B91">
         <v>29.73</v>
@@ -4366,7 +4365,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>3.9215686274509802</v>
+        <v>200</v>
       </c>
       <c r="B92">
         <v>28.73</v>
@@ -4381,7 +4380,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4.0196078431372548</v>
+        <v>205</v>
       </c>
       <c r="B93">
         <v>28.06</v>
@@ -4396,7 +4395,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4.117647058823529</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="B94">
         <v>26.51</v>
@@ -4411,7 +4410,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4.215686274509804</v>
+        <v>215</v>
       </c>
       <c r="B95">
         <v>25.34</v>
@@ -4426,7 +4425,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4.3137254901960782</v>
+        <v>220</v>
       </c>
       <c r="B96">
         <v>24.71</v>
@@ -4441,7 +4440,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>4.4117647058823533</v>
+        <v>225.00000000000003</v>
       </c>
       <c r="B97">
         <v>23.11</v>
@@ -4456,7 +4455,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4.5098039215686274</v>
+        <v>230</v>
       </c>
       <c r="B98">
         <v>22.27</v>
@@ -4471,7 +4470,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4.6078431372549016</v>
+        <v>234.99999999999997</v>
       </c>
       <c r="B99">
         <v>21.15</v>
@@ -4486,7 +4485,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4.7058823529411766</v>
+        <v>240</v>
       </c>
       <c r="B100">
         <v>19.850000000000001</v>
@@ -4501,7 +4500,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4.8039215686274508</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>18.2</v>
@@ -4516,7 +4515,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>4.9019607843137258</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="B102">
         <v>17.3</v>
@@ -4531,7 +4530,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>-5</v>
+        <v>-255</v>
       </c>
       <c r="B103">
         <v>16.440000000000001</v>
@@ -4546,7 +4545,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>-4.9019607843137258</v>
+        <v>-250.00000000000003</v>
       </c>
       <c r="B104">
         <v>14.69</v>
@@ -4561,7 +4560,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>-4.8039215686274508</v>
+        <v>-245</v>
       </c>
       <c r="B105">
         <v>13.9</v>
@@ -4576,7 +4575,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>-4.7058823529411766</v>
+        <v>-240</v>
       </c>
       <c r="B106">
         <v>12.7</v>
@@ -4591,7 +4590,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>-4.6078431372549016</v>
+        <v>-234.99999999999997</v>
       </c>
       <c r="B107">
         <v>10.69</v>
@@ -4606,7 +4605,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>-4.5098039215686274</v>
+        <v>-230</v>
       </c>
       <c r="B108">
         <v>10.81</v>
@@ -4621,7 +4620,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>-4.4117647058823533</v>
+        <v>-225.00000000000003</v>
       </c>
       <c r="B109">
         <v>11</v>
@@ -4636,7 +4635,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>-4.3137254901960782</v>
+        <v>-220</v>
       </c>
       <c r="B110">
         <v>10.69</v>
@@ -4651,7 +4650,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>-4.215686274509804</v>
+        <v>-215</v>
       </c>
       <c r="B111">
         <v>11.12</v>
@@ -4666,7 +4665,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>-4.117647058823529</v>
+        <v>-209.99999999999997</v>
       </c>
       <c r="B112">
         <v>11.48</v>
@@ -4681,7 +4680,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>-4.0196078431372548</v>
+        <v>-205</v>
       </c>
       <c r="B113">
         <v>12.41</v>
@@ -4696,7 +4695,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>-3.9215686274509802</v>
+        <v>-200</v>
       </c>
       <c r="B114">
         <v>13.54</v>
@@ -4711,7 +4710,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>-3.8235294117647056</v>
+        <v>-195</v>
       </c>
       <c r="B115">
         <v>14.09</v>
@@ -4726,7 +4725,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>-3.7254901960784315</v>
+        <v>-190</v>
       </c>
       <c r="B116">
         <v>14.47</v>
@@ -4741,7 +4740,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>-3.6274509803921569</v>
+        <v>-185</v>
       </c>
       <c r="B117">
         <v>15.88</v>
@@ -4756,7 +4755,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>-3.5294117647058822</v>
+        <v>-180</v>
       </c>
       <c r="B118">
         <v>16.27</v>
@@ -4771,7 +4770,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>-3.4313725490196076</v>
+        <v>-175</v>
       </c>
       <c r="B119">
         <v>17.32</v>
@@ -4786,7 +4785,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>-3.3333333333333335</v>
+        <v>-170</v>
       </c>
       <c r="B120">
         <v>18.399999999999999</v>
@@ -4801,7 +4800,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>-3.2352941176470589</v>
+        <v>-165</v>
       </c>
       <c r="B121">
         <v>19.12</v>
@@ -4816,7 +4815,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>-3.1372549019607843</v>
+        <v>-160</v>
       </c>
       <c r="B122">
         <v>20.329999999999998</v>
@@ -4831,7 +4830,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>-3.0392156862745097</v>
+        <v>-155</v>
       </c>
       <c r="B123">
         <v>21.56</v>
@@ -4846,7 +4845,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>-2.9411764705882351</v>
+        <v>-150</v>
       </c>
       <c r="B124">
         <v>22.85</v>
@@ -4861,7 +4860,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>-2.8431372549019609</v>
+        <v>-145</v>
       </c>
       <c r="B125">
         <v>24.55</v>
@@ -4876,7 +4875,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>-2.7450980392156863</v>
+        <v>-140</v>
       </c>
       <c r="B126">
         <v>25.6</v>
@@ -4891,7 +4890,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>-2.6470588235294117</v>
+        <v>-135</v>
       </c>
       <c r="B127">
         <v>27.04</v>
@@ -4906,7 +4905,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>-2.5490196078431371</v>
+        <v>-130</v>
       </c>
       <c r="B128">
         <v>28.26</v>
@@ -4921,7 +4920,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>-2.4509803921568629</v>
+        <v>-125.00000000000001</v>
       </c>
       <c r="B129">
         <v>29.74</v>
@@ -4936,7 +4935,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>-2.3529411764705883</v>
+        <v>-120</v>
       </c>
       <c r="B130">
         <v>31.68</v>
@@ -4951,7 +4950,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>-2.2549019607843137</v>
+        <v>-115</v>
       </c>
       <c r="B131">
         <v>32.770000000000003</v>
@@ -4966,7 +4965,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>-2.1568627450980391</v>
+        <v>-110</v>
       </c>
       <c r="B132">
         <v>34.24</v>
@@ -4981,7 +4980,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>-2.0588235294117645</v>
+        <v>-104.99999999999999</v>
       </c>
       <c r="B133">
         <v>35.76</v>
@@ -4996,7 +4995,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>-1.9607843137254901</v>
+        <v>-100</v>
       </c>
       <c r="B134">
         <v>37.11</v>
@@ -5011,7 +5010,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>-1.8627450980392157</v>
+        <v>-95</v>
       </c>
       <c r="B135">
         <v>38.28</v>
@@ -5026,7 +5025,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>-1.7647058823529411</v>
+        <v>-90</v>
       </c>
       <c r="B136">
         <v>39.950000000000003</v>
@@ -5041,7 +5040,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>-1.6666666666666667</v>
+        <v>-85</v>
       </c>
       <c r="B137">
         <v>40.57</v>
@@ -5056,7 +5055,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>-1.5686274509803921</v>
+        <v>-80</v>
       </c>
       <c r="B138">
         <v>41.39</v>
@@ -5071,7 +5070,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>-1.4705882352941175</v>
+        <v>-75</v>
       </c>
       <c r="B139">
         <v>42.34</v>
@@ -5086,7 +5085,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>-1.3725490196078431</v>
+        <v>-70</v>
       </c>
       <c r="B140">
         <v>42.99</v>
@@ -5101,7 +5100,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>-1.2745098039215685</v>
+        <v>-65</v>
       </c>
       <c r="B141">
         <v>43.63</v>
@@ -5116,7 +5115,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>-1.1764705882352942</v>
+        <v>-60</v>
       </c>
       <c r="B142">
         <v>43.88</v>
@@ -5131,7 +5130,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>-1.0784313725490196</v>
+        <v>-55</v>
       </c>
       <c r="B143">
         <v>44.71</v>
@@ -5146,7 +5145,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>-0.98039215686274506</v>
+        <v>-50</v>
       </c>
       <c r="B144">
         <v>45.1</v>
@@ -5161,7 +5160,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>-0.88235294117647056</v>
+        <v>-45</v>
       </c>
       <c r="B145">
         <v>45.19</v>
@@ -5176,7 +5175,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>-0.78431372549019607</v>
+        <v>-40</v>
       </c>
       <c r="B146">
         <v>45.46</v>
@@ -5191,7 +5190,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>-0.68627450980392157</v>
+        <v>-35</v>
       </c>
       <c r="B147">
         <v>46.17</v>
@@ -5206,7 +5205,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>-0.58823529411764708</v>
+        <v>-30</v>
       </c>
       <c r="B148">
         <v>46.49</v>
@@ -5221,7 +5220,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>-0.49019607843137253</v>
+        <v>-25</v>
       </c>
       <c r="B149">
         <v>46.55</v>
@@ -5236,7 +5235,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>-0.39215686274509803</v>
+        <v>-20</v>
       </c>
       <c r="B150">
         <v>46.19</v>
@@ -5251,7 +5250,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>-0.29411764705882354</v>
+        <v>-15</v>
       </c>
       <c r="B151">
         <v>46.19</v>
@@ -5266,7 +5265,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>-0.19607843137254902</v>
+        <v>-10</v>
       </c>
       <c r="B152">
         <v>46.22</v>
@@ -5281,7 +5280,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>-9.8039215686274508E-2</v>
+        <v>-5</v>
       </c>
       <c r="B153">
         <v>46.08</v>
@@ -5311,7 +5310,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>9.8039215686274508E-2</v>
+        <v>5</v>
       </c>
       <c r="B155">
         <v>46.01</v>
@@ -5326,7 +5325,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.19607843137254902</v>
+        <v>10</v>
       </c>
       <c r="B156">
         <v>45.77</v>
@@ -5341,7 +5340,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.29411764705882354</v>
+        <v>15</v>
       </c>
       <c r="B157">
         <v>45.6</v>
@@ -5356,7 +5355,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.39215686274509803</v>
+        <v>20</v>
       </c>
       <c r="B158">
         <v>45.5</v>
@@ -5371,7 +5370,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.49019607843137253</v>
+        <v>25</v>
       </c>
       <c r="B159">
         <v>45.26</v>
@@ -5386,7 +5385,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.58823529411764708</v>
+        <v>30</v>
       </c>
       <c r="B160">
         <v>44.97</v>
@@ -5401,7 +5400,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.68627450980392157</v>
+        <v>35</v>
       </c>
       <c r="B161">
         <v>44.76</v>
@@ -5416,7 +5415,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.78431372549019607</v>
+        <v>40</v>
       </c>
       <c r="B162">
         <v>45.02</v>
@@ -5431,7 +5430,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.88235294117647056</v>
+        <v>45</v>
       </c>
       <c r="B163">
         <v>44.19</v>
@@ -5446,7 +5445,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.98039215686274506</v>
+        <v>50</v>
       </c>
       <c r="B164">
         <v>43.93</v>
@@ -5461,7 +5460,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1.0784313725490196</v>
+        <v>55</v>
       </c>
       <c r="B165">
         <v>43.73</v>
@@ -5476,7 +5475,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1.1764705882352942</v>
+        <v>60</v>
       </c>
       <c r="B166">
         <v>43.4</v>
@@ -5491,7 +5490,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1.2745098039215685</v>
+        <v>65</v>
       </c>
       <c r="B167">
         <v>42.96</v>
@@ -5506,7 +5505,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1.3725490196078431</v>
+        <v>70</v>
       </c>
       <c r="B168">
         <v>42.7</v>
@@ -5521,7 +5520,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1.4705882352941175</v>
+        <v>75</v>
       </c>
       <c r="B169">
         <v>42.34</v>
@@ -5536,7 +5535,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1.5686274509803921</v>
+        <v>80</v>
       </c>
       <c r="B170">
         <v>41.82</v>
@@ -5551,7 +5550,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1.6666666666666667</v>
+        <v>85</v>
       </c>
       <c r="B171">
         <v>41.34</v>
@@ -5566,7 +5565,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1.7647058823529411</v>
+        <v>90</v>
       </c>
       <c r="B172">
         <v>40.98</v>
@@ -5581,7 +5580,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1.8627450980392157</v>
+        <v>95</v>
       </c>
       <c r="B173">
         <v>40.520000000000003</v>
@@ -5596,7 +5595,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1.9607843137254901</v>
+        <v>100</v>
       </c>
       <c r="B174">
         <v>40.31</v>
@@ -5611,7 +5610,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>2.0588235294117645</v>
+        <v>104.99999999999999</v>
       </c>
       <c r="B175">
         <v>39.909999999999997</v>
@@ -5626,7 +5625,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>2.1568627450980391</v>
+        <v>110</v>
       </c>
       <c r="B176">
         <v>39.380000000000003</v>
@@ -5641,7 +5640,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>2.2549019607843137</v>
+        <v>115</v>
       </c>
       <c r="B177">
         <v>38.81</v>
@@ -5656,7 +5655,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>2.3529411764705883</v>
+        <v>120</v>
       </c>
       <c r="B178">
         <v>38.25</v>
@@ -5671,7 +5670,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>2.4509803921568629</v>
+        <v>125.00000000000001</v>
       </c>
       <c r="B179">
         <v>37.630000000000003</v>
@@ -5686,7 +5685,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>2.5490196078431371</v>
+        <v>130</v>
       </c>
       <c r="B180">
         <v>37.06</v>
@@ -5701,7 +5700,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>2.6470588235294117</v>
+        <v>135</v>
       </c>
       <c r="B181">
         <v>36.340000000000003</v>
@@ -5716,7 +5715,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>2.7450980392156863</v>
+        <v>140</v>
       </c>
       <c r="B182">
         <v>36.22</v>
@@ -5731,7 +5730,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>2.8431372549019609</v>
+        <v>145</v>
       </c>
       <c r="B183">
         <v>35.14</v>
@@ -5746,7 +5745,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>2.9411764705882351</v>
+        <v>150</v>
       </c>
       <c r="B184">
         <v>34.880000000000003</v>
@@ -5761,7 +5760,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3.0392156862745097</v>
+        <v>155</v>
       </c>
       <c r="B185">
         <v>34.159999999999997</v>
@@ -5776,7 +5775,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3.1372549019607843</v>
+        <v>160</v>
       </c>
       <c r="B186">
         <v>32.97</v>
@@ -5791,7 +5790,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3.2352941176470589</v>
+        <v>165</v>
       </c>
       <c r="B187">
         <v>32.659999999999997</v>
@@ -5806,7 +5805,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3.3333333333333335</v>
+        <v>170</v>
       </c>
       <c r="B188">
         <v>31.53</v>
@@ -5821,7 +5820,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3.4313725490196076</v>
+        <v>175</v>
       </c>
       <c r="B189">
         <v>31.07</v>
@@ -5836,7 +5835,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3.5294117647058822</v>
+        <v>180</v>
       </c>
       <c r="B190">
         <v>29.76</v>
@@ -5851,7 +5850,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3.6274509803921569</v>
+        <v>185</v>
       </c>
       <c r="B191">
         <v>29.04</v>
@@ -5866,7 +5865,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3.7254901960784315</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>28.04</v>
@@ -5881,7 +5880,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3.8235294117647056</v>
+        <v>195</v>
       </c>
       <c r="B193">
         <v>27.54</v>
@@ -5896,7 +5895,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3.9215686274509802</v>
+        <v>200</v>
       </c>
       <c r="B194">
         <v>26.91</v>
@@ -5911,7 +5910,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>4.0196078431372548</v>
+        <v>205</v>
       </c>
       <c r="B195">
         <v>25.96</v>
@@ -5926,7 +5925,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>4.117647058823529</v>
+        <v>209.99999999999997</v>
       </c>
       <c r="B196">
         <v>24.45</v>
@@ -5941,7 +5940,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>4.215686274509804</v>
+        <v>215</v>
       </c>
       <c r="B197">
         <v>23.47</v>
@@ -5956,7 +5955,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>4.3137254901960782</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>23.01</v>
@@ -5971,7 +5970,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>4.4117647058823533</v>
+        <v>225.00000000000003</v>
       </c>
       <c r="B199">
         <v>21.56</v>
@@ -5986,7 +5985,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>4.5098039215686274</v>
+        <v>230</v>
       </c>
       <c r="B200">
         <v>20.41</v>
@@ -6001,7 +6000,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>4.6078431372549016</v>
+        <v>234.99999999999997</v>
       </c>
       <c r="B201">
         <v>19.48</v>
@@ -6016,7 +6015,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>4.7058823529411766</v>
+        <v>240</v>
       </c>
       <c r="B202">
         <v>18.87</v>
@@ -6031,7 +6030,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>4.8039215686274508</v>
+        <v>245</v>
       </c>
       <c r="B203">
         <v>17.84</v>
@@ -6046,7 +6045,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>4.9019607843137258</v>
+        <v>250.00000000000003</v>
       </c>
       <c r="B204">
         <v>17.16</v>
